--- a/_site/posts/2021-01-25-dataviz-makeover-01/data/1.1_clarity.xlsx
+++ b/_site/posts/2021-01-25-dataviz-makeover-01/data/1.1_clarity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awljiang\blog\_posts\2021-01-25-dataviz-makeover-01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6DB6D24-B3E2-4C58-9F6E-E822FE1C17B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A96F33-35AE-4166-9639-4A5B0D2FFD7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="1044" windowWidth="19812" windowHeight="11316" xr2:uid="{AA9E1373-0CC8-425E-B53E-B90218400515}"/>
+    <workbookView xWindow="2028" yWindow="792" windowWidth="19812" windowHeight="11316" xr2:uid="{AA9E1373-0CC8-425E-B53E-B90218400515}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Bar chart will be more appropriate for  categorical variable, include labels beside bar for ease of reading.</t>
   </si>
   <si>
-    <t xml:space="preserve">Exclude the reference line for the median age on the chart and mention it in the analysis instead.  </t>
-  </si>
-  <si>
     <t>Include a chart on LFPR by age</t>
   </si>
   <si>
@@ -63,12 +60,6 @@
 For example, to obtain the share of residents aged 55 &amp; over in the labour force, readers must manually sum the four columns “55-59”, “60-64”, “65-69” and “70 &amp; over”.</t>
   </si>
   <si>
-    <t>Use 3 age bands:
-15-24
-25-54
-55 &amp; over</t>
-  </si>
-  <si>
     <t xml:space="preserve">Age bands (x-axis) are categorical variables, and line graph is not appropriate as it is more suitable for continuous variable. 
 No grid line, hence difficult to map the value in the table to the point on the line. </t>
   </si>
@@ -77,7 +68,13 @@
 By including the vertical line, readers may mis-interpret that the intercept is the share of residents in the labour force at a particular age. </t>
   </si>
   <si>
-    <t>Data on LFPR (labour force participation rate) by age is not available in the chart/table.
+    <t>Use 3 age bands: "15-24", "25-54" and "55 &amp; over"</t>
+  </si>
+  <si>
+    <t>Create another chart for median age trend line.</t>
+  </si>
+  <si>
+    <t>Data on labour force participation rate (LFPR) by age is not available in the chart/table.
 Note: LFPR at the overall level (without age breakdown) is available in para 1.4 (Chart 4 of the report)</t>
   </si>
 </sst>
@@ -434,7 +431,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,10 +452,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -477,10 +474,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -491,7 +488,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -499,10 +496,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
